--- a/intern_group2.xlsx
+++ b/intern_group2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssilva/Desktop/interns 22/group2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssilva/group2_hackathon2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{331B374F-830A-9A4C-89B8-A103B623FA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B8908D-7FBE-4245-A134-FA8A2AB0A9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{069E8679-961F-FB47-A9C8-DBD4D00C42A1}"/>
   </bookViews>
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1353,7 +1353,7 @@
         <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
         <v>23</v>
@@ -2533,6 +2533,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FC320C0306E99141BB4A4885D1880F48" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb9f21076510e7261199c34000f96f18">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ff6d2e06-ac5c-4445-bdb0-8f4133788537" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a141fc9a50e3518c8ea7bc551396a050" ns2:_="">
     <xsd:import namespace="ff6d2e06-ac5c-4445-bdb0-8f4133788537"/>
@@ -2664,29 +2679,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{298AB59C-6C57-44DF-89C2-7FF4B88A74BD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50CB5F47-FB10-4E18-AACD-A1771548E926}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5835F900-B7C4-4999-B7FD-C07502DBA07E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5835F900-B7C4-4999-B7FD-C07502DBA07E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50CB5F47-FB10-4E18-AACD-A1771548E926}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{298AB59C-6C57-44DF-89C2-7FF4B88A74BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff6d2e06-ac5c-4445-bdb0-8f4133788537"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>